--- a/MainTop/11.03.2024/упаковка_wb2.xlsx
+++ b/MainTop/11.03.2024/упаковка_wb2.xlsx
@@ -272,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -312,13 +312,25 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -362,7 +374,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,8 +383,20 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -392,15 +416,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
@@ -417,10 +441,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -428,7 +452,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -450,7 +474,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -472,7 +496,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -483,7 +507,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -505,7 +529,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -516,7 +540,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -527,7 +551,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -549,7 +573,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -560,7 +584,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -582,7 +606,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -604,7 +628,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -626,7 +650,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -648,7 +672,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -670,7 +694,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -681,7 +705,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -703,7 +727,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -725,7 +749,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -747,7 +771,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -769,7 +793,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -791,7 +815,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -813,7 +837,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -835,7 +859,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -845,6 +869,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
